--- a/Code/Results/Cases/Case_4_65/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_65/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.97729555457822</v>
+        <v>15.72904439220488</v>
       </c>
       <c r="C2">
-        <v>13.34692744578446</v>
+        <v>8.513261556760259</v>
       </c>
       <c r="D2">
-        <v>10.34614102914503</v>
+        <v>14.37557280116933</v>
       </c>
       <c r="E2">
-        <v>9.977699401423941</v>
+        <v>15.34236555640216</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.085813555568709</v>
+        <v>3.671290136683783</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.10116779064227</v>
+        <v>9.03361154662759</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.77264141314106</v>
+        <v>18.98649499236267</v>
       </c>
       <c r="N2">
-        <v>12.15205244402293</v>
+        <v>18.70640435242177</v>
       </c>
       <c r="O2">
-        <v>19.97826325859672</v>
+        <v>27.96912167992028</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.60098534236714</v>
+        <v>15.3141241827853</v>
       </c>
       <c r="C3">
-        <v>12.45413783368177</v>
+        <v>8.138979562866673</v>
       </c>
       <c r="D3">
-        <v>10.03691651550904</v>
+        <v>14.36212761784862</v>
       </c>
       <c r="E3">
-        <v>9.816473377621806</v>
+        <v>15.35916240154982</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.092917589229403</v>
+        <v>3.67396206409995</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.138610873125686</v>
+        <v>9.053770850526581</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.00480960737407</v>
+        <v>18.86686280104447</v>
       </c>
       <c r="N3">
-        <v>12.38996435363718</v>
+        <v>18.7749345714912</v>
       </c>
       <c r="O3">
-        <v>19.58336269085613</v>
+        <v>28.00143219801121</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.70783945373486</v>
+        <v>15.05682538163829</v>
       </c>
       <c r="C4">
-        <v>11.87472767937214</v>
+        <v>7.901284961013491</v>
       </c>
       <c r="D4">
-        <v>9.849677965029642</v>
+        <v>14.35683326751841</v>
       </c>
       <c r="E4">
-        <v>9.723094899995745</v>
+        <v>15.3722365643375</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.097404724945079</v>
+        <v>3.675689500497684</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.163173854318956</v>
+        <v>9.066952788009667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.52111160471018</v>
+        <v>18.79666573946472</v>
       </c>
       <c r="N4">
-        <v>12.53881003196982</v>
+        <v>18.81894102833706</v>
       </c>
       <c r="O4">
-        <v>19.35763315159199</v>
+        <v>28.02837001936225</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.33169071493949</v>
+        <v>14.95150124344966</v>
       </c>
       <c r="C5">
-        <v>11.63070662470714</v>
+        <v>7.802578284188582</v>
       </c>
       <c r="D5">
-        <v>9.774121088223682</v>
+        <v>14.35542214591324</v>
       </c>
       <c r="E5">
-        <v>9.686451592023698</v>
+        <v>15.37825816345913</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.099265839593799</v>
+        <v>3.676415361090493</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.173573722075545</v>
+        <v>9.072527117835385</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.32116325974829</v>
+        <v>18.76890265853485</v>
       </c>
       <c r="N5">
-        <v>12.60019681228015</v>
+        <v>18.83736059884187</v>
       </c>
       <c r="O5">
-        <v>19.26981755347983</v>
+        <v>28.0411277921349</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.26849294343811</v>
+        <v>14.93398867156896</v>
       </c>
       <c r="C6">
-        <v>11.58970810898908</v>
+        <v>7.786081139520936</v>
       </c>
       <c r="D6">
-        <v>9.761622398455829</v>
+        <v>14.35523295178985</v>
       </c>
       <c r="E6">
-        <v>9.680451972361507</v>
+        <v>15.37929993056426</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.099576873912016</v>
+        <v>3.676537215552519</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.175324038531542</v>
+        <v>9.073464978398519</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.2877985003024</v>
+        <v>18.76434418784648</v>
       </c>
       <c r="N6">
-        <v>12.61043518336494</v>
+        <v>18.84044859031654</v>
       </c>
       <c r="O6">
-        <v>19.2554863759052</v>
+        <v>28.04335358914891</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.70281603554179</v>
+        <v>15.0554066339766</v>
       </c>
       <c r="C7">
-        <v>11.8714688069712</v>
+        <v>7.899961038886347</v>
       </c>
       <c r="D7">
-        <v>9.848655851357554</v>
+        <v>14.35681121261874</v>
       </c>
       <c r="E7">
-        <v>9.722595015526331</v>
+        <v>15.37231496541878</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.097429691325235</v>
+        <v>3.675699200871844</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.163312537009726</v>
+        <v>9.06702714458978</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.518426169985</v>
+        <v>18.796287874173</v>
       </c>
       <c r="N7">
-        <v>12.53963491067981</v>
+        <v>18.81918746883509</v>
       </c>
       <c r="O7">
-        <v>19.35643201186871</v>
+        <v>28.02853487327318</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.51266674791313</v>
+        <v>15.58660267360562</v>
       </c>
       <c r="C8">
-        <v>13.0455430351115</v>
+        <v>8.385922749170822</v>
       </c>
       <c r="D8">
-        <v>10.23902433405408</v>
+        <v>14.37032355253423</v>
       </c>
       <c r="E8">
-        <v>9.920942394445156</v>
+        <v>15.34758386864839</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.088237704658378</v>
+        <v>3.672193433653303</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.113748437506235</v>
+        <v>9.040395835822684</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.51056706979256</v>
+        <v>18.94458427325292</v>
       </c>
       <c r="N8">
-        <v>12.23353204559479</v>
+        <v>18.72963426071376</v>
       </c>
       <c r="O8">
-        <v>19.83860735224273</v>
+        <v>27.9787863262155</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.68464867766761</v>
+        <v>16.6013442663214</v>
       </c>
       <c r="C9">
-        <v>15.10267724065414</v>
+        <v>9.271159946160482</v>
       </c>
       <c r="D9">
-        <v>11.02196220170475</v>
+        <v>14.42021752137766</v>
       </c>
       <c r="E9">
-        <v>10.354489492419</v>
+        <v>15.32100735247079</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.071153658695559</v>
+        <v>3.66600447120437</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.029293858471849</v>
+        <v>8.994533648146499</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.35043578935253</v>
+        <v>19.26014411225715</v>
       </c>
       <c r="N9">
-        <v>11.65351673845494</v>
+        <v>18.56924883727973</v>
       </c>
       <c r="O9">
-        <v>20.91821425006086</v>
+        <v>27.93773701784268</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.79164404238505</v>
+        <v>17.32201079452507</v>
       </c>
       <c r="C10">
-        <v>16.46848405277539</v>
+        <v>9.874446273497338</v>
       </c>
       <c r="D10">
-        <v>11.60378847356825</v>
+        <v>14.47097724834274</v>
       </c>
       <c r="E10">
-        <v>10.70022051891771</v>
+        <v>15.31485770502379</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.059097550247776</v>
+        <v>3.661870822639445</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.975417444545132</v>
+        <v>8.964692163360906</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.62900059621174</v>
+        <v>19.50553173558565</v>
       </c>
       <c r="N10">
-        <v>11.23717830237337</v>
+        <v>18.46059125114192</v>
       </c>
       <c r="O10">
-        <v>21.79443057438728</v>
+        <v>27.9422259369082</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.70315205811579</v>
+        <v>17.64287908492229</v>
       </c>
       <c r="C11">
-        <v>17.05915698534227</v>
+        <v>10.13772546510164</v>
       </c>
       <c r="D11">
-        <v>11.86924727876011</v>
+        <v>14.49708692397432</v>
       </c>
       <c r="E11">
-        <v>10.8634233771703</v>
+        <v>15.3149633977717</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.053701524816837</v>
+        <v>3.660079075324513</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.952786021653792</v>
+        <v>8.951948038300023</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.29821017669865</v>
+        <v>19.6197583691937</v>
       </c>
       <c r="N11">
-        <v>11.04929024846029</v>
+        <v>18.41313033026164</v>
       </c>
       <c r="O11">
-        <v>22.21131584323819</v>
+        <v>27.95181677483936</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.04169239187416</v>
+        <v>17.7632640908803</v>
       </c>
       <c r="C12">
-        <v>17.27850679263025</v>
+        <v>10.2357548484651</v>
       </c>
       <c r="D12">
-        <v>11.96984118067692</v>
+        <v>14.50740345719558</v>
       </c>
       <c r="E12">
-        <v>10.92607936404801</v>
+        <v>15.3154203992975</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.051669176247314</v>
+        <v>3.659413261272557</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.944496005161287</v>
+        <v>8.947241265194265</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.55411943552053</v>
+        <v>19.66335630724332</v>
       </c>
       <c r="N12">
-        <v>10.97830364488718</v>
+        <v>18.39543942444007</v>
       </c>
       <c r="O12">
-        <v>22.37183239559456</v>
+        <v>27.95653457674108</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.96907434599706</v>
+        <v>17.73738866136134</v>
       </c>
       <c r="C13">
-        <v>17.23145690196772</v>
+        <v>10.21471759746915</v>
       </c>
       <c r="D13">
-        <v>11.94817389389044</v>
+        <v>14.50516259170724</v>
       </c>
       <c r="E13">
-        <v>10.91254719574771</v>
+        <v>15.3153034408358</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.052106417869619</v>
+        <v>3.659556093308194</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.946268782322613</v>
+        <v>8.948249659013802</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.49921829083928</v>
+        <v>19.65395196260372</v>
       </c>
       <c r="N13">
-        <v>10.99358556009131</v>
+        <v>18.39923698043761</v>
       </c>
       <c r="O13">
-        <v>22.33714393954888</v>
+        <v>27.95547021802327</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.73113605354437</v>
+        <v>17.6528063403752</v>
       </c>
       <c r="C14">
-        <v>17.07728922592693</v>
+        <v>10.14582417649313</v>
       </c>
       <c r="D14">
-        <v>11.87752198670329</v>
+        <v>14.49792709513224</v>
       </c>
       <c r="E14">
-        <v>10.86856097072158</v>
+        <v>15.31499264231322</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.053534111890513</v>
+        <v>3.660024044633022</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.952098323394329</v>
+        <v>8.951558423187068</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.31936035281072</v>
+        <v>19.62333850646265</v>
       </c>
       <c r="N14">
-        <v>11.04344720606726</v>
+        <v>18.41166925522075</v>
       </c>
       <c r="O14">
-        <v>22.2244683507356</v>
+        <v>27.9521831477105</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.58453272672902</v>
+        <v>17.60084790250104</v>
       </c>
       <c r="C15">
-        <v>16.98229630019975</v>
+        <v>10.10340592006354</v>
       </c>
       <c r="D15">
-        <v>11.83425377872612</v>
+        <v>14.49355091161546</v>
       </c>
       <c r="E15">
-        <v>10.84172955463832</v>
+        <v>15.31485655366478</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.054409996516202</v>
+        <v>3.660312327835038</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.955705869795652</v>
+        <v>8.95360064385995</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.20856513227181</v>
+        <v>19.60463059674651</v>
       </c>
       <c r="N15">
-        <v>11.07400838975589</v>
+        <v>18.41932100047979</v>
       </c>
       <c r="O15">
-        <v>22.15579733365623</v>
+        <v>27.95031114378152</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.73114026858028</v>
+        <v>17.30089069542388</v>
       </c>
       <c r="C16">
-        <v>16.42927240680463</v>
+        <v>9.857010098540858</v>
       </c>
       <c r="D16">
-        <v>11.58645199271141</v>
+        <v>14.46933127243959</v>
       </c>
       <c r="E16">
-        <v>10.68967422727411</v>
+        <v>15.31490917976999</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.059451829506889</v>
+        <v>3.661989695911323</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.976935071078519</v>
+        <v>8.965541713367257</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.59175393614489</v>
+        <v>19.49811641900394</v>
       </c>
       <c r="N16">
-        <v>11.24948301489572</v>
+        <v>18.463732407905</v>
       </c>
       <c r="O16">
-        <v>21.76755579592463</v>
+        <v>27.94175111402667</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.19566812915011</v>
+        <v>17.11500432448227</v>
       </c>
       <c r="C17">
-        <v>16.0822182294969</v>
+        <v>9.702947256448281</v>
       </c>
       <c r="D17">
-        <v>11.43460039191477</v>
+        <v>14.45524328852451</v>
       </c>
       <c r="E17">
-        <v>10.59791209266768</v>
+        <v>15.3156847556133</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.062566299991365</v>
+        <v>3.663041368284699</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.990446116441147</v>
+        <v>8.973079750778549</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.26342141593087</v>
+        <v>19.43341718437607</v>
       </c>
       <c r="N17">
-        <v>11.35747968882505</v>
+        <v>18.49148035575798</v>
       </c>
       <c r="O17">
-        <v>21.53407923621815</v>
+        <v>27.93843385755411</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.883249182386</v>
+        <v>17.00743812676889</v>
       </c>
       <c r="C18">
-        <v>15.8797127419427</v>
+        <v>9.613287190700449</v>
       </c>
       <c r="D18">
-        <v>11.34733487743756</v>
+        <v>14.44742471392733</v>
       </c>
       <c r="E18">
-        <v>10.54569063688375</v>
+        <v>15.31640415229436</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.064366087696647</v>
+        <v>3.66365461255997</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.998393338902949</v>
+        <v>8.977493659908426</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.0729733494055</v>
+        <v>19.39645037329953</v>
       </c>
       <c r="N18">
-        <v>11.41974179207102</v>
+        <v>18.50762556244497</v>
       </c>
       <c r="O18">
-        <v>21.40150963639163</v>
+        <v>27.93723641998344</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.77670497877245</v>
+        <v>16.97091034671378</v>
       </c>
       <c r="C19">
-        <v>15.81064929439182</v>
+        <v>9.582752101000407</v>
       </c>
       <c r="D19">
-        <v>11.31780272434885</v>
+        <v>14.44482647157184</v>
       </c>
       <c r="E19">
-        <v>10.52810511977861</v>
+        <v>15.31669467992909</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.064976961502863</v>
+        <v>3.663863682786771</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.001114075927629</v>
+        <v>8.979001579947345</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.00821837156632</v>
+        <v>19.38397731087648</v>
       </c>
       <c r="N19">
-        <v>11.440849199838</v>
+        <v>18.51312392627619</v>
       </c>
       <c r="O19">
-        <v>21.35691873829174</v>
+        <v>27.9369529988616</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.25312759815814</v>
+        <v>17.13486033904223</v>
       </c>
       <c r="C20">
-        <v>16.11946118468415</v>
+        <v>9.719456386709165</v>
       </c>
       <c r="D20">
-        <v>11.45075778311001</v>
+        <v>14.4567135705445</v>
       </c>
       <c r="E20">
-        <v>10.60762260380714</v>
+        <v>15.3155739110327</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.062233898987691</v>
+        <v>3.662928552256853</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.988989555157974</v>
+        <v>8.972269219813496</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.29853906862099</v>
+        <v>19.44027924083166</v>
       </c>
       <c r="N20">
-        <v>11.34596860148704</v>
+        <v>18.48850737001482</v>
       </c>
       <c r="O20">
-        <v>21.55875508147132</v>
+        <v>27.93871343854563</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.8012031269758</v>
+        <v>17.67768153526892</v>
       </c>
       <c r="C21">
-        <v>17.12268872127351</v>
+        <v>10.16610559375981</v>
       </c>
       <c r="D21">
-        <v>11.89827252920984</v>
+        <v>14.50004072320755</v>
       </c>
       <c r="E21">
-        <v>10.88145756320261</v>
+        <v>15.31507261973743</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.053114479031727</v>
+        <v>3.659886252352663</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.950378360490766</v>
+        <v>8.950583327871611</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.37231946374938</v>
+        <v>19.6323213660142</v>
       </c>
       <c r="N21">
-        <v>11.02879767396458</v>
+        <v>18.40800996621294</v>
       </c>
       <c r="O21">
-        <v>22.257491738223</v>
+        <v>27.95311916831117</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.77439200589807</v>
+        <v>18.02586544270345</v>
       </c>
       <c r="C22">
-        <v>17.75318716105478</v>
+        <v>10.44826718271442</v>
       </c>
       <c r="D22">
-        <v>12.19114897700745</v>
+        <v>14.53085765061456</v>
       </c>
       <c r="E22">
-        <v>11.06540956743992</v>
+        <v>15.3171750818165</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.047217682024129</v>
+        <v>3.657971820920402</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.926781355953884</v>
+        <v>8.93710469264723</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.10829973201317</v>
+        <v>19.7598153896276</v>
       </c>
       <c r="N22">
-        <v>10.8224271231295</v>
+        <v>18.3570404682238</v>
       </c>
       <c r="O22">
-        <v>22.72962664976783</v>
+        <v>27.96886350181885</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.25846765693328</v>
+        <v>17.84067197147699</v>
       </c>
       <c r="C23">
-        <v>17.41895295056622</v>
+        <v>10.29858292496659</v>
       </c>
       <c r="D23">
-        <v>12.03480946930008</v>
+        <v>14.51418300659386</v>
       </c>
       <c r="E23">
-        <v>10.96677312169454</v>
+        <v>15.31583082502667</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.050359724883231</v>
+        <v>3.658986850943076</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.939222045627347</v>
+        <v>8.944235070045202</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.71803256690052</v>
+        <v>19.69159827666346</v>
       </c>
       <c r="N23">
-        <v>10.93250591943249</v>
+        <v>18.38409425345192</v>
       </c>
       <c r="O23">
-        <v>22.47621431788867</v>
+        <v>27.95988140961406</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.22716441276577</v>
+        <v>17.12588559867336</v>
       </c>
       <c r="C24">
-        <v>16.10263293089517</v>
+        <v>9.711995990638639</v>
       </c>
       <c r="D24">
-        <v>11.44345291108059</v>
+        <v>14.45604798104806</v>
       </c>
       <c r="E24">
-        <v>10.6032308191054</v>
+        <v>15.31562317187815</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.062384148583633</v>
+        <v>3.662979529514657</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.989647508026676</v>
+        <v>8.972635411040965</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.28266762248802</v>
+        <v>19.43717618742821</v>
       </c>
       <c r="N24">
-        <v>11.35117222000695</v>
+        <v>18.48985085695407</v>
       </c>
       <c r="O24">
-        <v>21.54759396528327</v>
+        <v>27.93858482926774</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.86627192151676</v>
+        <v>16.33062418132669</v>
       </c>
       <c r="C25">
-        <v>14.57203253253851</v>
+        <v>9.039587768839962</v>
       </c>
       <c r="D25">
-        <v>10.80873783604063</v>
+        <v>14.40422968781613</v>
       </c>
       <c r="E25">
-        <v>10.23242595312536</v>
+        <v>15.32584814079054</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.075682299872986</v>
+        <v>3.667605815881241</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.050738034118134</v>
+        <v>9.006262103061218</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.86505813985096</v>
+        <v>19.17228237256042</v>
       </c>
       <c r="N25">
-        <v>11.80851040979011</v>
+        <v>18.61101806192204</v>
       </c>
       <c r="O25">
-        <v>20.61164714163167</v>
+        <v>27.94276849254996</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_65/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_65/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.72904439220488</v>
+        <v>19.97729555457827</v>
       </c>
       <c r="C2">
-        <v>8.513261556760259</v>
+        <v>13.34692744578447</v>
       </c>
       <c r="D2">
-        <v>14.37557280116933</v>
+        <v>10.34614102914505</v>
       </c>
       <c r="E2">
-        <v>15.34236555640216</v>
+        <v>9.977699401423946</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.671290136683783</v>
+        <v>2.085813555568844</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.03361154662759</v>
+        <v>5.101167790642303</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.98649499236267</v>
+        <v>15.77264141314106</v>
       </c>
       <c r="N2">
-        <v>18.70640435242177</v>
+        <v>12.15205244402296</v>
       </c>
       <c r="O2">
-        <v>27.96912167992028</v>
+        <v>19.97826325859676</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.3141241827853</v>
+        <v>18.60098534236721</v>
       </c>
       <c r="C3">
-        <v>8.138979562866673</v>
+        <v>12.45413783368181</v>
       </c>
       <c r="D3">
-        <v>14.36212761784862</v>
+        <v>10.03691651550906</v>
       </c>
       <c r="E3">
-        <v>15.35916240154982</v>
+        <v>9.816473377621774</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.67396206409995</v>
+        <v>2.092917589229538</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.053770850526581</v>
+        <v>5.138610873125623</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.86686280104447</v>
+        <v>15.00480960737404</v>
       </c>
       <c r="N3">
-        <v>18.7749345714912</v>
+        <v>12.38996435363715</v>
       </c>
       <c r="O3">
-        <v>28.00143219801121</v>
+        <v>19.58336269085603</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.05682538163829</v>
+        <v>17.70783945373484</v>
       </c>
       <c r="C4">
-        <v>7.901284961013491</v>
+        <v>11.87472767937204</v>
       </c>
       <c r="D4">
-        <v>14.35683326751841</v>
+        <v>9.849677965029658</v>
       </c>
       <c r="E4">
-        <v>15.3722365643375</v>
+        <v>9.723094899995788</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.675689500497684</v>
+        <v>2.097404724945344</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.066952788009667</v>
+        <v>5.163173854318984</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.79666573946472</v>
+        <v>14.5211116047102</v>
       </c>
       <c r="N4">
-        <v>18.81894102833706</v>
+        <v>12.53881003196982</v>
       </c>
       <c r="O4">
-        <v>28.02837001936225</v>
+        <v>19.35763315159204</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.95150124344966</v>
+        <v>17.33169071493944</v>
       </c>
       <c r="C5">
-        <v>7.802578284188582</v>
+        <v>11.63070662470706</v>
       </c>
       <c r="D5">
-        <v>14.35542214591324</v>
+        <v>9.774121088223669</v>
       </c>
       <c r="E5">
-        <v>15.37825816345913</v>
+        <v>9.686451592023705</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.676415361090493</v>
+        <v>2.099265839593799</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.072527117835385</v>
+        <v>5.173573722075576</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.76890265853485</v>
+        <v>14.32116325974832</v>
       </c>
       <c r="N5">
-        <v>18.83736059884187</v>
+        <v>12.60019681228015</v>
       </c>
       <c r="O5">
-        <v>28.0411277921349</v>
+        <v>19.26981755347986</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.93398867156896</v>
+        <v>17.2684929434381</v>
       </c>
       <c r="C6">
-        <v>7.786081139520936</v>
+        <v>11.589708108989</v>
       </c>
       <c r="D6">
-        <v>14.35523295178985</v>
+        <v>9.761622398455911</v>
       </c>
       <c r="E6">
-        <v>15.37929993056426</v>
+        <v>9.68045197236159</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.676537215552519</v>
+        <v>2.099576873912018</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.073464978398519</v>
+        <v>5.175324038531603</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.76434418784648</v>
+        <v>14.28779850030243</v>
       </c>
       <c r="N6">
-        <v>18.84044859031654</v>
+        <v>12.61043518336501</v>
       </c>
       <c r="O6">
-        <v>28.04335358914891</v>
+        <v>19.25548637590532</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.0554066339766</v>
+        <v>17.70281603554177</v>
       </c>
       <c r="C7">
-        <v>7.899961038886347</v>
+        <v>11.87146880697112</v>
       </c>
       <c r="D7">
-        <v>14.35681121261874</v>
+        <v>9.848655851357595</v>
       </c>
       <c r="E7">
-        <v>15.37231496541878</v>
+        <v>9.722595015526425</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.675699200871844</v>
+        <v>2.097429691324968</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.06702714458978</v>
+        <v>5.163312537009788</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.796287874173</v>
+        <v>14.51842616998504</v>
       </c>
       <c r="N7">
-        <v>18.81918746883509</v>
+        <v>12.53963491067982</v>
       </c>
       <c r="O7">
-        <v>28.02853487327318</v>
+        <v>19.35643201186874</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.58660267360562</v>
+        <v>19.51266674791315</v>
       </c>
       <c r="C8">
-        <v>8.385922749170822</v>
+        <v>13.04554303511151</v>
       </c>
       <c r="D8">
-        <v>14.37032355253423</v>
+        <v>10.23902433405411</v>
       </c>
       <c r="E8">
-        <v>15.34758386864839</v>
+        <v>9.920942394445168</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.672193433653303</v>
+        <v>2.08823770465851</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.040395835822684</v>
+        <v>5.113748437506267</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.94458427325292</v>
+        <v>15.51056706979257</v>
       </c>
       <c r="N8">
-        <v>18.72963426071376</v>
+        <v>12.23353204559479</v>
       </c>
       <c r="O8">
-        <v>27.9787863262155</v>
+        <v>19.83860735224272</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.6013442663214</v>
+        <v>22.68464867766764</v>
       </c>
       <c r="C9">
-        <v>9.271159946160482</v>
+        <v>15.10267724065416</v>
       </c>
       <c r="D9">
-        <v>14.42021752137766</v>
+        <v>11.02196220170469</v>
       </c>
       <c r="E9">
-        <v>15.32100735247079</v>
+        <v>10.35448949241894</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.66600447120437</v>
+        <v>2.071153658695426</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.994533648146499</v>
+        <v>5.029293858471823</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.26014411225715</v>
+        <v>17.35043578935252</v>
       </c>
       <c r="N9">
-        <v>18.56924883727973</v>
+        <v>11.65351673845498</v>
       </c>
       <c r="O9">
-        <v>27.93773701784268</v>
+        <v>20.91821425006087</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.32201079452507</v>
+        <v>24.79164404238502</v>
       </c>
       <c r="C10">
-        <v>9.874446273497338</v>
+        <v>16.46848405277533</v>
       </c>
       <c r="D10">
-        <v>14.47097724834274</v>
+        <v>11.60378847356822</v>
       </c>
       <c r="E10">
-        <v>15.31485770502379</v>
+        <v>10.70022051891764</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.661870822639445</v>
+        <v>2.059097550247907</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.964692163360906</v>
+        <v>4.975417444545075</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.50553173558565</v>
+        <v>18.62900059621174</v>
       </c>
       <c r="N10">
-        <v>18.46059125114192</v>
+        <v>11.23717830237333</v>
       </c>
       <c r="O10">
-        <v>27.9422259369082</v>
+        <v>21.79443057438732</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.64287908492229</v>
+        <v>25.70315205811568</v>
       </c>
       <c r="C11">
-        <v>10.13772546510164</v>
+        <v>17.0591569853422</v>
       </c>
       <c r="D11">
-        <v>14.49708692397432</v>
+        <v>11.86924727876011</v>
       </c>
       <c r="E11">
-        <v>15.3149633977717</v>
+        <v>10.86342337717022</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.660079075324513</v>
+        <v>2.053701524816971</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.951948038300023</v>
+        <v>4.952786021653686</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.6197583691937</v>
+        <v>19.29821017669862</v>
       </c>
       <c r="N11">
-        <v>18.41313033026164</v>
+        <v>11.04929024846033</v>
       </c>
       <c r="O11">
-        <v>27.95181677483936</v>
+        <v>22.2113158432382</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.7632640908803</v>
+        <v>26.04169239187415</v>
       </c>
       <c r="C12">
-        <v>10.2357548484651</v>
+        <v>17.2785067926304</v>
       </c>
       <c r="D12">
-        <v>14.50740345719558</v>
+        <v>11.9698411806769</v>
       </c>
       <c r="E12">
-        <v>15.3154203992975</v>
+        <v>10.92607936404796</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.659413261272557</v>
+        <v>2.051669176247448</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.947241265194265</v>
+        <v>4.944496005161258</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.66335630724332</v>
+        <v>19.55411943552058</v>
       </c>
       <c r="N12">
-        <v>18.39543942444007</v>
+        <v>10.97830364488714</v>
       </c>
       <c r="O12">
-        <v>27.95653457674108</v>
+        <v>22.3718323955945</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.73738866136134</v>
+        <v>25.96907434599714</v>
       </c>
       <c r="C13">
-        <v>10.21471759746915</v>
+        <v>17.2314569019677</v>
       </c>
       <c r="D13">
-        <v>14.50516259170724</v>
+        <v>11.94817389389038</v>
       </c>
       <c r="E13">
-        <v>15.3153034408358</v>
+        <v>10.91254719574766</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.659556093308194</v>
+        <v>2.052106417869749</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.948249659013802</v>
+        <v>4.946268782322499</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.65395196260372</v>
+        <v>19.49921829083935</v>
       </c>
       <c r="N13">
-        <v>18.39923698043761</v>
+        <v>10.99358556009121</v>
       </c>
       <c r="O13">
-        <v>27.95547021802327</v>
+        <v>22.3371439395488</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.6528063403752</v>
+        <v>25.73113605354433</v>
       </c>
       <c r="C14">
-        <v>10.14582417649313</v>
+        <v>17.07728922592696</v>
       </c>
       <c r="D14">
-        <v>14.49792709513224</v>
+        <v>11.8775219867033</v>
       </c>
       <c r="E14">
-        <v>15.31499264231322</v>
+        <v>10.86856097072158</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.660024044633022</v>
+        <v>2.05353411189038</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.951558423187068</v>
+        <v>4.952098323394384</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.62333850646265</v>
+        <v>19.31936035281071</v>
       </c>
       <c r="N14">
-        <v>18.41166925522075</v>
+        <v>11.0434472060673</v>
       </c>
       <c r="O14">
-        <v>27.9521831477105</v>
+        <v>22.22446835073562</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.60084790250104</v>
+        <v>25.58453272672913</v>
       </c>
       <c r="C15">
-        <v>10.10340592006354</v>
+        <v>16.98229630019986</v>
       </c>
       <c r="D15">
-        <v>14.49355091161546</v>
+        <v>11.83425377872612</v>
       </c>
       <c r="E15">
-        <v>15.31485655366478</v>
+        <v>10.84172955463835</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.660312327835038</v>
+        <v>2.054409996516202</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.95360064385995</v>
+        <v>4.955705869795681</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.60463059674651</v>
+        <v>19.20856513227187</v>
       </c>
       <c r="N15">
-        <v>18.41932100047979</v>
+        <v>11.07400838975586</v>
       </c>
       <c r="O15">
-        <v>27.95031114378152</v>
+        <v>22.15579733365614</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.30089069542388</v>
+        <v>24.73114026858028</v>
       </c>
       <c r="C16">
-        <v>9.857010098540858</v>
+        <v>16.4292724068047</v>
       </c>
       <c r="D16">
-        <v>14.46933127243959</v>
+        <v>11.58645199271141</v>
       </c>
       <c r="E16">
-        <v>15.31490917976999</v>
+        <v>10.68967422727418</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.661989695911323</v>
+        <v>2.059451829506889</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.965541713367257</v>
+        <v>4.97693507107861</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.49811641900394</v>
+        <v>18.5917539361449</v>
       </c>
       <c r="N16">
-        <v>18.463732407905</v>
+        <v>11.24948301489576</v>
       </c>
       <c r="O16">
-        <v>27.94175111402667</v>
+        <v>21.76755579592463</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.11500432448227</v>
+        <v>24.19566812915013</v>
       </c>
       <c r="C17">
-        <v>9.702947256448281</v>
+        <v>16.08221822949704</v>
       </c>
       <c r="D17">
-        <v>14.45524328852451</v>
+        <v>11.43460039191486</v>
       </c>
       <c r="E17">
-        <v>15.3156847556133</v>
+        <v>10.59791209266764</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.663041368284699</v>
+        <v>2.062566299991498</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.973079750778549</v>
+        <v>4.990446116441027</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.43341718437607</v>
+        <v>18.26342141593084</v>
       </c>
       <c r="N17">
-        <v>18.49148035575798</v>
+        <v>11.35747968882505</v>
       </c>
       <c r="O17">
-        <v>27.93843385755411</v>
+        <v>21.53407923621807</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.00743812676889</v>
+        <v>23.88324918238591</v>
       </c>
       <c r="C18">
-        <v>9.613287190700449</v>
+        <v>15.87971274194285</v>
       </c>
       <c r="D18">
-        <v>14.44742471392733</v>
+        <v>11.34733487743756</v>
       </c>
       <c r="E18">
-        <v>15.31640415229436</v>
+        <v>10.54569063688376</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.66365461255997</v>
+        <v>2.064366087696647</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.977493659908426</v>
+        <v>4.99839333890295</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.39645037329953</v>
+        <v>18.0729733494055</v>
       </c>
       <c r="N18">
-        <v>18.50762556244497</v>
+        <v>11.41974179207098</v>
       </c>
       <c r="O18">
-        <v>27.93723641998344</v>
+        <v>21.40150963639162</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.97091034671378</v>
+        <v>23.77670497877251</v>
       </c>
       <c r="C19">
-        <v>9.582752101000407</v>
+        <v>15.81064929439185</v>
       </c>
       <c r="D19">
-        <v>14.44482647157184</v>
+        <v>11.3178027243488</v>
       </c>
       <c r="E19">
-        <v>15.31669467992909</v>
+        <v>10.52810511977858</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.663863682786771</v>
+        <v>2.064976961502865</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.979001579947345</v>
+        <v>5.001114075927663</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.38397731087648</v>
+        <v>18.00821837156631</v>
       </c>
       <c r="N19">
-        <v>18.51312392627619</v>
+        <v>11.440849199838</v>
       </c>
       <c r="O19">
-        <v>27.9369529988616</v>
+        <v>21.35691873829174</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.13486033904223</v>
+        <v>24.25312759815808</v>
       </c>
       <c r="C20">
-        <v>9.719456386709165</v>
+        <v>16.1194611846842</v>
       </c>
       <c r="D20">
-        <v>14.4567135705445</v>
+        <v>11.45075778311002</v>
       </c>
       <c r="E20">
-        <v>15.3155739110327</v>
+        <v>10.60762260380717</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.662928552256853</v>
+        <v>2.062233898987824</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.972269219813496</v>
+        <v>4.988989555158032</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.44027924083166</v>
+        <v>18.29853906862101</v>
       </c>
       <c r="N20">
-        <v>18.48850737001482</v>
+        <v>11.34596860148708</v>
       </c>
       <c r="O20">
-        <v>27.93871343854563</v>
+        <v>21.55875508147138</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.67768153526892</v>
+        <v>25.80120312697583</v>
       </c>
       <c r="C21">
-        <v>10.16610559375981</v>
+        <v>17.12268872127355</v>
       </c>
       <c r="D21">
-        <v>14.50004072320755</v>
+        <v>11.89827252920992</v>
       </c>
       <c r="E21">
-        <v>15.31507261973743</v>
+        <v>10.88145756320258</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.659886252352663</v>
+        <v>2.05311447903173</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.950583327871611</v>
+        <v>4.950378360490707</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.6323213660142</v>
+        <v>19.37231946374938</v>
       </c>
       <c r="N21">
-        <v>18.40800996621294</v>
+        <v>11.02879767396458</v>
       </c>
       <c r="O21">
-        <v>27.95311916831117</v>
+        <v>22.25749173822301</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.02586544270345</v>
+        <v>26.77439200589807</v>
       </c>
       <c r="C22">
-        <v>10.44826718271442</v>
+        <v>17.75318716105474</v>
       </c>
       <c r="D22">
-        <v>14.53085765061456</v>
+        <v>12.19114897700745</v>
       </c>
       <c r="E22">
-        <v>15.3171750818165</v>
+        <v>11.06540956743989</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.657971820920402</v>
+        <v>2.047217682024132</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.93710469264723</v>
+        <v>4.926781355953828</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.7598153896276</v>
+        <v>20.10829973201319</v>
       </c>
       <c r="N22">
-        <v>18.3570404682238</v>
+        <v>10.82242712312947</v>
       </c>
       <c r="O22">
-        <v>27.96886350181885</v>
+        <v>22.72962664976779</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.84067197147699</v>
+        <v>26.25846765693321</v>
       </c>
       <c r="C23">
-        <v>10.29858292496659</v>
+        <v>17.41895295056623</v>
       </c>
       <c r="D23">
-        <v>14.51418300659386</v>
+        <v>12.03480946930016</v>
       </c>
       <c r="E23">
-        <v>15.31583082502667</v>
+        <v>10.96677312169454</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.658986850943076</v>
+        <v>2.050359724883363</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.944235070045202</v>
+        <v>4.939222045627344</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.69159827666346</v>
+        <v>19.71803256690047</v>
       </c>
       <c r="N23">
-        <v>18.38409425345192</v>
+        <v>10.93250591943252</v>
       </c>
       <c r="O23">
-        <v>27.95988140961406</v>
+        <v>22.4762143178888</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.12588559867336</v>
+        <v>24.22716441276578</v>
       </c>
       <c r="C24">
-        <v>9.711995990638639</v>
+        <v>16.10263293089502</v>
       </c>
       <c r="D24">
-        <v>14.45604798104806</v>
+        <v>11.44345291108057</v>
       </c>
       <c r="E24">
-        <v>15.31562317187815</v>
+        <v>10.60323081910543</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.662979529514657</v>
+        <v>2.062384148583631</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.972635411040965</v>
+        <v>4.989647508026702</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.43717618742821</v>
+        <v>18.28266762248804</v>
       </c>
       <c r="N24">
-        <v>18.48985085695407</v>
+        <v>11.35117222000692</v>
       </c>
       <c r="O24">
-        <v>27.93858482926774</v>
+        <v>21.54759396528328</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.33062418132669</v>
+        <v>21.86627192151676</v>
       </c>
       <c r="C25">
-        <v>9.039587768839962</v>
+        <v>14.57203253253859</v>
       </c>
       <c r="D25">
-        <v>14.40422968781613</v>
+        <v>10.8087378360406</v>
       </c>
       <c r="E25">
-        <v>15.32584814079054</v>
+        <v>10.2324259531253</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.667605815881241</v>
+        <v>2.075682299872987</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.006262103061218</v>
+        <v>5.05073803411805</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.17228237256042</v>
+        <v>16.86505813985093</v>
       </c>
       <c r="N25">
-        <v>18.61101806192204</v>
+        <v>11.80851040979005</v>
       </c>
       <c r="O25">
-        <v>27.94276849254996</v>
+        <v>20.61164714163157</v>
       </c>
     </row>
   </sheetData>
